--- a/05.25 EEFF Consolidados v11.07.xlsx
+++ b/05.25 EEFF Consolidados v11.07.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farmiral53\Desktop\Farmiral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7456060-B69B-4B5F-B633-27F5B75B4073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A50C82-8BBE-435C-A84C-E66A98604379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{B3F80055-3A20-4CC9-AC92-785707E82E75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B3F80055-3A20-4CC9-AC92-785707E82E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="2" r:id="rId1"/>
     <sheet name="Estado de Resultados" sheetId="3" r:id="rId2"/>
     <sheet name="Balanza" sheetId="1" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9C82AB32-3DD1-4244-B358-3DB0C6282BE3}</author>
+    <author>tc={3CC69EF9-F6D1-4B8C-B8F6-8675AF3ECC2B}</author>
+    <author>tc={C68F7CC1-F999-4542-BA45-AC4AA20E87CF}</author>
+    <author>tc={7CF370C7-C962-4488-91F2-C6B4644AAE34}</author>
+    <author>tc={68A3075B-5965-4838-B0CE-B3DA5E83AF80}</author>
+    <author>tc={A0E367DC-5272-4E5D-A687-A17BC576A348}</author>
+    <author>tc={D9046E45-53F0-46A4-A12B-3C1B2001B196}</author>
+    <author>tc={E9BE02E8-2A13-4848-96B3-5A2B7792504A}</author>
+    <author>tc={F54E5553-10C1-4BA9-9D79-F269CA694C62}</author>
+    <author>tc={DE4BB653-3653-4E40-8614-69C826C544BA}</author>
+    <author>tc={DE013A8C-4041-469D-96F4-30E39C2E7C03}</author>
+    <author>tc={1FF643AF-9931-4350-A62E-CF3CCEC4B87F}</author>
+    <author>tc={4C6827D2-3929-44AE-BEF7-7E9B26D928AD}</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{9C82AB32-3DD1-4244-B358-3DB0C6282BE3}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    MAQUILA</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{3CC69EF9-F6D1-4B8C-B8F6-8675AF3ECC2B}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    BIOMIRAL</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{C68F7CC1-F999-4542-BA45-AC4AA20E87CF}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    TMI</t>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="3" shapeId="0" xr:uid="{7CF370C7-C962-4488-91F2-C6B4644AAE34}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    DESCUENTOS DEVOLUCIONES
+</t>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="4" shapeId="0" xr:uid="{68A3075B-5965-4838-B0CE-B3DA5E83AF80}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    PRUEBAS DE CALIDAD</t>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="5" shapeId="0" xr:uid="{A0E367DC-5272-4E5D-A687-A17BC576A348}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    NOMINA SOPORTE A LA OPERACION</t>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="6" shapeId="0" xr:uid="{D9046E45-53F0-46A4-A12B-3C1B2001B196}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    RENTA, LUZ/GAS, RENTA EQUIPOS, CERTIFICACIONES, CONSUMIBLES PRODUCCION, MANTENIMIENTO, PRUEBAS DESARROLLO</t>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="7" shapeId="0" xr:uid="{E9BE02E8-2A13-4848-96B3-5A2B7792504A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    NOMINA ALMACEN</t>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="8" shapeId="0" xr:uid="{F54E5553-10C1-4BA9-9D79-F269CA694C62}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    NOMINA MTTO</t>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="9" shapeId="0" xr:uid="{DE4BB653-3653-4E40-8614-69C826C544BA}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    NOMINA CALIDAD</t>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="10" shapeId="0" xr:uid="{DE013A8C-4041-469D-96F4-30E39C2E7C03}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    NOMINA DESARROLLO</t>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="11" shapeId="0" xr:uid="{1FF643AF-9931-4350-A62E-CF3CCEC4B87F}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    GASTOS 2024
+</t>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="12" shapeId="0" xr:uid="{4C6827D2-3929-44AE-BEF7-7E9B26D928AD}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    ARRENDAMIENTOS</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1999">
   <si>
     <t>Xana Lab SA de CV 2025</t>
   </si>
@@ -6250,15 +6379,30 @@
       <t>"7"</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">No esta en movimientos </t>
+  </si>
+  <si>
+    <t>Abono en la cuenta sueldos de producción</t>
+  </si>
+  <si>
+    <t>LA CUENTA CONTABLE ACTUAL SI COINCIDE EL SALDO</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.###############;\(\$#,##0.###############\);\$#,##0.###############"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -6481,7 +6625,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6615,7 +6759,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7018,7 +7216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7152,6 +7350,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="27" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="31" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="32" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="169" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="33" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="34" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="36" borderId="0" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="28" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="15" xfId="169" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="171">
     <cellStyle name="20% - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -7337,6 +7555,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gerardo Fuentes" id="{3FFF3505-E334-400F-B447-7B045A02337E}" userId="8e1a1364dcca4452" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7634,8 +7858,55 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C6" dT="2025-07-29T20:29:33.59" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{9C82AB32-3DD1-4244-B358-3DB0C6282BE3}">
+    <text>MAQUILA</text>
+  </threadedComment>
+  <threadedComment ref="C9" dT="2025-07-31T16:35:45.00" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{3CC69EF9-F6D1-4B8C-B8F6-8675AF3ECC2B}">
+    <text>BIOMIRAL</text>
+  </threadedComment>
+  <threadedComment ref="C17" dT="2025-07-29T20:29:44.72" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{C68F7CC1-F999-4542-BA45-AC4AA20E87CF}">
+    <text>TMI</text>
+  </threadedComment>
+  <threadedComment ref="C18" dT="2025-07-29T20:30:15.23" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{7CF370C7-C962-4488-91F2-C6B4644AAE34}">
+    <text xml:space="preserve">DESCUENTOS DEVOLUCIONES
+</text>
+  </threadedComment>
+  <threadedComment ref="C38" dT="2025-07-29T20:30:38.98" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{68A3075B-5965-4838-B0CE-B3DA5E83AF80}">
+    <text>PRUEBAS DE CALIDAD</text>
+  </threadedComment>
+  <threadedComment ref="C43" dT="2025-07-29T20:30:53.50" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{A0E367DC-5272-4E5D-A687-A17BC576A348}">
+    <text>NOMINA SOPORTE A LA OPERACION</text>
+  </threadedComment>
+  <threadedComment ref="C44" dT="2025-07-31T18:55:19.66" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{D9046E45-53F0-46A4-A12B-3C1B2001B196}">
+    <text>RENTA, LUZ/GAS, RENTA EQUIPOS, CERTIFICACIONES, CONSUMIBLES PRODUCCION, MANTENIMIENTO, PRUEBAS DESARROLLO</text>
+  </threadedComment>
+  <threadedComment ref="C46" dT="2025-07-29T20:31:14.37" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{E9BE02E8-2A13-4848-96B3-5A2B7792504A}">
+    <text>NOMINA ALMACEN</text>
+  </threadedComment>
+  <threadedComment ref="C48" dT="2025-07-29T20:31:30.58" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{F54E5553-10C1-4BA9-9D79-F269CA694C62}">
+    <text>NOMINA MTTO</text>
+  </threadedComment>
+  <threadedComment ref="C55" dT="2025-07-29T20:32:54.52" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{DE4BB653-3653-4E40-8614-69C826C544BA}">
+    <text>NOMINA CALIDAD</text>
+  </threadedComment>
+  <threadedComment ref="C56" dT="2025-07-29T20:33:08.23" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{DE013A8C-4041-469D-96F4-30E39C2E7C03}">
+    <text>NOMINA DESARROLLO</text>
+  </threadedComment>
+  <threadedComment ref="C59" dT="2025-07-29T20:33:41.62" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{1FF643AF-9931-4350-A62E-CF3CCEC4B87F}">
+    <text xml:space="preserve">GASTOS 2024
+</text>
+  </threadedComment>
+  <threadedComment ref="C61" dT="2025-07-29T20:34:00.31" personId="{3FFF3505-E334-400F-B447-7B045A02337E}" id="{4C6827D2-3929-44AE-BEF7-7E9B26D928AD}">
+    <text>ARRENDAMIENTOS</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36E31EF-B647-49CF-AAD7-525A120E8C48}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -8860,11 +9131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A73EBC-C141-4404-8CC1-ADF33675786F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A73EBC-C141-4404-8CC1-ADF33675786F}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8882,6 +9154,7 @@
     <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -9104,7 +9377,7 @@
       <c r="B7" s="55" t="s">
         <v>1283</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="77">
         <v>395791.62</v>
       </c>
       <c r="D7" s="57">
@@ -9172,9 +9445,17 @@
       <c r="L8" s="50"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="O8" s="76">
+        <f>C7+C9+C10</f>
+        <v>6894906.3500000006</v>
+      </c>
+      <c r="P8" s="50">
+        <v>7050376.0899999999</v>
+      </c>
+      <c r="Q8" s="76">
+        <f>O8-P8</f>
+        <v>-155469.73999999929</v>
+      </c>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
@@ -9192,7 +9473,7 @@
       <c r="B9" s="55" t="s">
         <v>1287</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="77">
         <v>6466395.9500000002</v>
       </c>
       <c r="D9" s="57">
@@ -9248,7 +9529,7 @@
       <c r="B10" s="55" t="s">
         <v>1289</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="77">
         <v>32718.78</v>
       </c>
       <c r="D10" s="57">
@@ -9286,7 +9567,10 @@
       </c>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="Q10" s="50">
+        <f>Q8/2</f>
+        <v>-77734.869999999646</v>
+      </c>
       <c r="R10" s="50"/>
       <c r="S10" s="50"/>
       <c r="T10" s="50"/>
@@ -9508,7 +9792,7 @@
       <c r="B16" s="55" t="s">
         <v>1295</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="71">
         <v>15254.85</v>
       </c>
       <c r="D16" s="57">
@@ -9620,7 +9904,7 @@
       <c r="B18" s="55" t="s">
         <v>1299</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="71">
         <v>71056.009999999995</v>
       </c>
       <c r="D18" s="57">
@@ -9664,7 +9948,7 @@
       <c r="B19" s="55" t="s">
         <v>1301</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="71">
         <v>3668.57</v>
       </c>
       <c r="D19" s="57">
@@ -9708,7 +9992,7 @@
       <c r="B20" s="55" t="s">
         <v>1303</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="71">
         <v>1130.3800000000001</v>
       </c>
       <c r="D20" s="57">
@@ -9750,7 +10034,7 @@
       <c r="B21" s="55" t="s">
         <v>1305</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="71">
         <v>0</v>
       </c>
       <c r="D21" s="50"/>
@@ -9788,7 +10072,7 @@
       <c r="B22" s="55" t="s">
         <v>1307</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="71">
         <v>5105.3999999999996</v>
       </c>
       <c r="D22" s="57">
@@ -9832,7 +10116,7 @@
       <c r="B23" s="55" t="s">
         <v>1309</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="71">
         <v>0</v>
       </c>
       <c r="D23" s="50"/>
@@ -9872,7 +10156,7 @@
       <c r="B24" s="55" t="s">
         <v>1311</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="71">
         <v>0</v>
       </c>
       <c r="D24" s="50"/>
@@ -9972,7 +10256,7 @@
       <c r="B27" s="55" t="s">
         <v>1313</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="58">
         <v>11186.73</v>
       </c>
       <c r="D27" s="57">
@@ -10007,6 +10291,10 @@
       </c>
       <c r="N27" s="57">
         <v>0.55047081798929287</v>
+      </c>
+      <c r="P27">
+        <f>11248.01-11186.73</f>
+        <v>61.280000000000655</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -10129,14 +10417,14 @@
       <c r="M32" s="50"/>
       <c r="N32" s="50"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
         <v>1326</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>1327</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="79">
         <v>6211437.0999999996</v>
       </c>
       <c r="D33" s="57">
@@ -10172,15 +10460,16 @@
       <c r="N33" s="57">
         <v>40.980999545989278</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="78"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>1328</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>1329</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="58">
         <v>15517.18</v>
       </c>
       <c r="D34" s="57">
@@ -10212,15 +10501,18 @@
       <c r="N34" s="57">
         <v>1.9083257440437887E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>1330</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>1331</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="58">
         <v>428.26</v>
       </c>
       <c r="D35" s="57">
@@ -10252,15 +10544,18 @@
       <c r="N35" s="57">
         <v>4.0496214525546616E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
         <v>1332</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>1333</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="81">
         <v>1446387.71</v>
       </c>
       <c r="D36" s="57">
@@ -10296,15 +10591,22 @@
       <c r="N36" s="57">
         <v>11.763040184308899</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="80">
+        <f>1599413.75-C36-C37</f>
+        <v>451.74000000004889</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>1374</v>
       </c>
       <c r="B37" s="55" t="s">
         <v>1375</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="81">
         <v>152574.29999999999</v>
       </c>
       <c r="D37" s="57">
@@ -10341,7 +10643,7 @@
         <v>2.3221126958736775</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>1384</v>
       </c>
@@ -10383,7 +10685,7 @@
         <v>0.54344900598190515</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>1969</v>
       </c>
@@ -10427,7 +10729,7 @@
         <v>55.669180904119742</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>1921</v>
       </c>
@@ -10445,7 +10747,7 @@
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
         <v>1388</v>
       </c>
@@ -10465,7 +10767,7 @@
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>1390</v>
       </c>
@@ -10509,7 +10811,7 @@
         <v>2.1461403548018123</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
         <v>1420</v>
       </c>
@@ -10551,14 +10853,14 @@
         <v>0.32080599306455787</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>1430</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>1431</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="83">
         <v>885338.7</v>
       </c>
       <c r="D44" s="57">
@@ -10594,15 +10896,22 @@
       <c r="N44" s="57">
         <v>5.7639593601800012</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <f>885338.7-852154.03</f>
+        <v>33184.669999999925</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>1462</v>
       </c>
       <c r="B45" s="55" t="s">
         <v>1463</v>
       </c>
-      <c r="C45" s="58">
+      <c r="C45" s="71">
         <v>210215.94</v>
       </c>
       <c r="D45" s="57">
@@ -10637,14 +10946,14 @@
         <v>0.76948523777675704</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>1486</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>1487</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="71">
         <v>15519.1</v>
       </c>
       <c r="D46" s="57">
@@ -10679,14 +10988,14 @@
         <v>0.11379007678926645</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>1496</v>
       </c>
       <c r="B47" s="55" t="s">
         <v>1497</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="72">
         <v>86955.7</v>
       </c>
       <c r="D47" s="57">
@@ -10723,14 +11032,14 @@
         <v>0.33678600965648109</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>1520</v>
       </c>
       <c r="B48" s="55" t="s">
         <v>1521</v>
       </c>
-      <c r="C48" s="58">
+      <c r="C48" s="72">
         <v>7843.61</v>
       </c>
       <c r="D48" s="57">
@@ -10852,7 +11161,7 @@
       <c r="B52" s="55" t="s">
         <v>1533</v>
       </c>
-      <c r="C52" s="58">
+      <c r="C52" s="70">
         <v>1182405.67</v>
       </c>
       <c r="D52" s="57">
@@ -10984,7 +11293,7 @@
       <c r="B55" s="55" t="s">
         <v>1756</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="72">
         <v>201538.09</v>
       </c>
       <c r="D55" s="57">
@@ -11028,7 +11337,7 @@
       <c r="B56" s="55" t="s">
         <v>1801</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="73">
         <v>213980.06</v>
       </c>
       <c r="D56" s="57">
@@ -11152,7 +11461,7 @@
       <c r="B59" s="55" t="s">
         <v>1877</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="74">
         <v>857008.34</v>
       </c>
       <c r="D59" s="57">
@@ -11238,7 +11547,7 @@
       <c r="B61" s="55" t="s">
         <v>1894</v>
       </c>
-      <c r="C61" s="58">
+      <c r="C61" s="75">
         <v>69987.740000000005</v>
       </c>
       <c r="D61" s="57">
@@ -11678,7 +11987,7 @@
       <c r="B74" s="55" t="s">
         <v>1877</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="89">
         <v>857008.34</v>
       </c>
       <c r="D74" s="57">
@@ -11831,15 +12140,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21A5C60-3E51-4CDB-AEE1-6A7D9D9C9F2F}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:T1033"/>
   <sheetViews>
-    <sheetView topLeftCell="A834" workbookViewId="0">
-      <selection activeCell="F857" sqref="F857"/>
+    <sheetView tabSelected="1" topLeftCell="A983" workbookViewId="0">
+      <selection activeCell="F1002" activeCellId="1" sqref="F987:F1001 F1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50551,7 +50862,7 @@
       <c r="C775" s="1">
         <v>1</v>
       </c>
-      <c r="D775" s="3" t="s">
+      <c r="D775" s="82" t="s">
         <v>1433</v>
       </c>
       <c r="E775" s="13">
@@ -50601,7 +50912,7 @@
       <c r="C776" s="1">
         <v>1</v>
       </c>
-      <c r="D776" s="3" t="s">
+      <c r="D776" s="82" t="s">
         <v>1435</v>
       </c>
       <c r="E776" s="13">
@@ -50651,7 +50962,7 @@
       <c r="C777" s="1">
         <v>1</v>
       </c>
-      <c r="D777" s="3" t="s">
+      <c r="D777" s="82" t="s">
         <v>1437</v>
       </c>
       <c r="E777" s="13">
@@ -50701,7 +51012,7 @@
       <c r="C778" s="1">
         <v>1</v>
       </c>
-      <c r="D778" s="3" t="s">
+      <c r="D778" s="82" t="s">
         <v>1439</v>
       </c>
       <c r="E778" s="13">
@@ -50751,7 +51062,7 @@
       <c r="C779" s="1">
         <v>1</v>
       </c>
-      <c r="D779" s="3" t="s">
+      <c r="D779" s="82" t="s">
         <v>1441</v>
       </c>
       <c r="E779" s="13">
@@ -50851,7 +51162,7 @@
       <c r="C781" s="1">
         <v>1</v>
       </c>
-      <c r="D781" s="3" t="s">
+      <c r="D781" s="82" t="s">
         <v>1445</v>
       </c>
       <c r="E781" s="13">
@@ -50901,7 +51212,7 @@
       <c r="C782" s="1">
         <v>1</v>
       </c>
-      <c r="D782" s="3" t="s">
+      <c r="D782" s="82" t="s">
         <v>1447</v>
       </c>
       <c r="E782" s="13">
@@ -50951,7 +51262,7 @@
       <c r="C783" s="1">
         <v>1</v>
       </c>
-      <c r="D783" s="3" t="s">
+      <c r="D783" s="82" t="s">
         <v>1449</v>
       </c>
       <c r="E783" s="13">
@@ -51001,7 +51312,7 @@
       <c r="C784" s="1">
         <v>1</v>
       </c>
-      <c r="D784" s="3" t="s">
+      <c r="D784" s="82" t="s">
         <v>1451</v>
       </c>
       <c r="E784" s="13">
@@ -51051,7 +51362,7 @@
       <c r="C785" s="1">
         <v>1</v>
       </c>
-      <c r="D785" s="3" t="s">
+      <c r="D785" s="82" t="s">
         <v>1453</v>
       </c>
       <c r="E785" s="13">
@@ -51101,7 +51412,7 @@
       <c r="C786" s="1">
         <v>1</v>
       </c>
-      <c r="D786" s="3" t="s">
+      <c r="D786" s="82" t="s">
         <v>1455</v>
       </c>
       <c r="E786" s="13">
@@ -51151,7 +51462,7 @@
       <c r="C787" s="1">
         <v>1</v>
       </c>
-      <c r="D787" s="3" t="s">
+      <c r="D787" s="82" t="s">
         <v>1457</v>
       </c>
       <c r="E787" s="13">
@@ -51201,7 +51512,7 @@
       <c r="C788" s="1">
         <v>1</v>
       </c>
-      <c r="D788" s="3" t="s">
+      <c r="D788" s="82" t="s">
         <v>1459</v>
       </c>
       <c r="E788" s="13">
@@ -51251,7 +51562,7 @@
       <c r="C789" s="1">
         <v>1</v>
       </c>
-      <c r="D789" s="3" t="s">
+      <c r="D789" s="82" t="s">
         <v>1461</v>
       </c>
       <c r="E789" s="13">
@@ -53157,7 +53468,7 @@
       <c r="E827" s="13">
         <v>135265.78</v>
       </c>
-      <c r="F827" s="12">
+      <c r="F827" s="86">
         <v>67103.990000000005</v>
       </c>
       <c r="G827" s="12">
@@ -53207,7 +53518,7 @@
       <c r="E828" s="13">
         <v>24988.06</v>
       </c>
-      <c r="F828" s="12">
+      <c r="F828" s="86">
         <v>11266.53</v>
       </c>
       <c r="G828" s="12">
@@ -53257,7 +53568,7 @@
       <c r="E829" s="13">
         <v>16967.25</v>
       </c>
-      <c r="F829" s="12">
+      <c r="F829" s="86">
         <v>8559.86</v>
       </c>
       <c r="G829" s="12">
@@ -53307,7 +53618,7 @@
       <c r="E830" s="13">
         <v>16967.25</v>
       </c>
-      <c r="F830" s="12">
+      <c r="F830" s="86">
         <v>8559.86</v>
       </c>
       <c r="G830" s="12">
@@ -53357,7 +53668,7 @@
       <c r="E831" s="13">
         <v>10717.1</v>
       </c>
-      <c r="F831" s="12">
+      <c r="F831" s="86">
         <v>6265.55</v>
       </c>
       <c r="G831" s="12">
@@ -53407,7 +53718,7 @@
       <c r="E832" s="13">
         <v>1454.42</v>
       </c>
-      <c r="F832" s="12">
+      <c r="F832" s="86">
         <v>0</v>
       </c>
       <c r="G832" s="12">
@@ -53457,7 +53768,7 @@
       <c r="E833" s="13">
         <v>1645.39</v>
       </c>
-      <c r="F833" s="12">
+      <c r="F833" s="86">
         <v>740.14</v>
       </c>
       <c r="G833" s="12">
@@ -53507,7 +53818,7 @@
       <c r="E834" s="13">
         <v>1973.7</v>
       </c>
-      <c r="F834" s="12">
+      <c r="F834" s="86">
         <v>1973.7</v>
       </c>
       <c r="G834" s="12">
@@ -53557,7 +53868,7 @@
       <c r="E835" s="13">
         <v>14522.58</v>
       </c>
-      <c r="F835" s="12">
+      <c r="F835" s="86">
         <v>4320.63</v>
       </c>
       <c r="G835" s="12">
@@ -53607,7 +53918,7 @@
       <c r="E836" s="13">
         <v>16967.240000000002</v>
       </c>
-      <c r="F836" s="12">
+      <c r="F836" s="86">
         <v>8559.86</v>
       </c>
       <c r="G836" s="12">
@@ -53657,7 +53968,7 @@
       <c r="E837" s="13">
         <v>8484.16</v>
       </c>
-      <c r="F837" s="12">
+      <c r="F837" s="86">
         <v>4279.83</v>
       </c>
       <c r="G837" s="12">
@@ -53707,7 +54018,7 @@
       <c r="E838" s="13">
         <v>24238.69</v>
       </c>
-      <c r="F838" s="12">
+      <c r="F838" s="86">
         <v>12228.25</v>
       </c>
       <c r="G838" s="12">
@@ -53757,7 +54068,7 @@
       <c r="E839" s="13">
         <v>2803</v>
       </c>
-      <c r="F839" s="12">
+      <c r="F839" s="86">
         <v>1000</v>
       </c>
       <c r="G839" s="12">
@@ -53807,7 +54118,7 @@
       <c r="E840" s="13">
         <v>0</v>
       </c>
-      <c r="F840" s="12">
+      <c r="F840" s="86">
         <v>0</v>
       </c>
       <c r="G840" s="12">
@@ -53857,7 +54168,7 @@
       <c r="E841" s="13">
         <v>24911.73</v>
       </c>
-      <c r="F841" s="12">
+      <c r="F841" s="86">
         <v>10091.82</v>
       </c>
       <c r="G841" s="12">
@@ -53907,7 +54218,7 @@
       <c r="E842" s="13">
         <v>10878.83</v>
       </c>
-      <c r="F842" s="12">
+      <c r="F842" s="86">
         <v>0</v>
       </c>
       <c r="G842" s="12">
@@ -53957,7 +54268,7 @@
       <c r="E843" s="13">
         <v>16535.189999999999</v>
       </c>
-      <c r="F843" s="12">
+      <c r="F843" s="86">
         <v>0</v>
       </c>
       <c r="G843" s="12">
@@ -54007,7 +54318,7 @@
       <c r="E844" s="13">
         <v>7810.52</v>
       </c>
-      <c r="F844" s="12">
+      <c r="F844" s="86">
         <v>3885.99</v>
       </c>
       <c r="G844" s="12">
@@ -54057,7 +54368,7 @@
       <c r="E845" s="13">
         <v>0</v>
       </c>
-      <c r="F845" s="12">
+      <c r="F845" s="86">
         <v>330325.82</v>
       </c>
       <c r="G845" s="12">
@@ -54107,7 +54418,7 @@
       <c r="E846" s="13">
         <v>121048.96000000001</v>
       </c>
-      <c r="F846" s="12">
+      <c r="F846" s="86">
         <v>20000</v>
       </c>
       <c r="G846" s="12">
@@ -54157,7 +54468,7 @@
       <c r="E847" s="13">
         <v>0</v>
       </c>
-      <c r="F847" s="12">
+      <c r="F847" s="86">
         <v>289314.68</v>
       </c>
       <c r="G847" s="12">
@@ -54257,7 +54568,7 @@
       <c r="E849" s="13">
         <v>0</v>
       </c>
-      <c r="F849" s="12">
+      <c r="F849" s="86">
         <v>23888.89</v>
       </c>
       <c r="G849" s="12">
@@ -54307,7 +54618,7 @@
       <c r="E850" s="13">
         <v>0</v>
       </c>
-      <c r="F850" s="12">
+      <c r="F850" s="87">
         <v>88875.92</v>
       </c>
       <c r="G850" s="12">
@@ -54357,7 +54668,7 @@
       <c r="E851" s="13">
         <v>3335.33</v>
       </c>
-      <c r="F851" s="12">
+      <c r="F851" s="87">
         <v>4714.75</v>
       </c>
       <c r="G851" s="12">
@@ -54407,7 +54718,7 @@
       <c r="E852" s="13">
         <v>8495.7099999999991</v>
       </c>
-      <c r="F852" s="12">
+      <c r="F852" s="86">
         <v>650.87</v>
       </c>
       <c r="G852" s="12">
@@ -54457,7 +54768,7 @@
       <c r="E853" s="13">
         <v>0</v>
       </c>
-      <c r="F853" s="12">
+      <c r="F853" s="86">
         <v>0</v>
       </c>
       <c r="G853" s="12">
@@ -54507,7 +54818,7 @@
       <c r="E854" s="13">
         <v>51430</v>
       </c>
-      <c r="F854" s="12">
+      <c r="F854" s="86">
         <v>0</v>
       </c>
       <c r="G854" s="12">
@@ -54557,7 +54868,7 @@
       <c r="E855" s="13">
         <v>0</v>
       </c>
-      <c r="F855" s="12">
+      <c r="F855" s="86">
         <v>44289.26</v>
       </c>
       <c r="G855" s="12">
@@ -54607,7 +54918,7 @@
       <c r="E856" s="13">
         <v>681.14</v>
       </c>
-      <c r="F856" s="12">
+      <c r="F856" s="86">
         <v>68211.61</v>
       </c>
       <c r="G856" s="12">
@@ -54707,7 +55018,7 @@
       <c r="E858" s="13">
         <v>207802.55</v>
       </c>
-      <c r="F858" s="12">
+      <c r="F858" s="86">
         <v>766586.16</v>
       </c>
       <c r="G858" s="12">
@@ -54757,7 +55068,7 @@
       <c r="E859" s="13">
         <v>68531.520000000004</v>
       </c>
-      <c r="F859" s="12">
+      <c r="F859" s="86">
         <v>29523.41</v>
       </c>
       <c r="G859" s="12">
@@ -54807,7 +55118,7 @@
       <c r="E860" s="13">
         <v>115323.4</v>
       </c>
-      <c r="F860" s="17">
+      <c r="F860" s="88">
         <v>-87079.73</v>
       </c>
       <c r="G860" s="12">
@@ -54857,7 +55168,7 @@
       <c r="E861" s="13">
         <v>0</v>
       </c>
-      <c r="F861" s="12">
+      <c r="F861" s="86">
         <v>2544.86</v>
       </c>
       <c r="G861" s="12">
@@ -54907,7 +55218,7 @@
       <c r="E862" s="13">
         <v>13970.66</v>
       </c>
-      <c r="F862" s="12">
+      <c r="F862" s="86">
         <v>0</v>
       </c>
       <c r="G862" s="12">
@@ -54957,7 +55268,7 @@
       <c r="E863" s="13">
         <v>27500.5</v>
       </c>
-      <c r="F863" s="12">
+      <c r="F863" s="86">
         <v>27500.5</v>
       </c>
       <c r="G863" s="12">
@@ -55007,7 +55318,7 @@
       <c r="E864" s="13">
         <v>0</v>
       </c>
-      <c r="F864" s="12">
+      <c r="F864" s="86">
         <v>0</v>
       </c>
       <c r="G864" s="12">
@@ -55057,7 +55368,7 @@
       <c r="E865" s="13">
         <v>30000</v>
       </c>
-      <c r="F865" s="12">
+      <c r="F865" s="86">
         <v>0</v>
       </c>
       <c r="G865" s="12">
@@ -55107,7 +55418,7 @@
       <c r="E866" s="13">
         <v>0</v>
       </c>
-      <c r="F866" s="12">
+      <c r="F866" s="86">
         <v>0</v>
       </c>
       <c r="G866" s="12">
@@ -55157,7 +55468,7 @@
       <c r="E867" s="13">
         <v>0</v>
       </c>
-      <c r="F867" s="12">
+      <c r="F867" s="86">
         <v>0</v>
       </c>
       <c r="G867" s="12">
@@ -55207,7 +55518,7 @@
       <c r="E868" s="13">
         <v>895.91</v>
       </c>
-      <c r="F868" s="12">
+      <c r="F868" s="86">
         <v>3354</v>
       </c>
       <c r="G868" s="12">
@@ -55257,7 +55568,7 @@
       <c r="E869" s="13">
         <v>14706.07</v>
       </c>
-      <c r="F869" s="12">
+      <c r="F869" s="86">
         <v>5501.35</v>
       </c>
       <c r="G869" s="12">
@@ -55307,7 +55618,7 @@
       <c r="E870" s="13">
         <v>0</v>
       </c>
-      <c r="F870" s="12">
+      <c r="F870" s="86">
         <v>0</v>
       </c>
       <c r="G870" s="12">
@@ -55357,7 +55668,7 @@
       <c r="E871" s="13">
         <v>0</v>
       </c>
-      <c r="F871" s="12">
+      <c r="F871" s="86">
         <v>0</v>
       </c>
       <c r="G871" s="12">
@@ -55407,7 +55718,7 @@
       <c r="E872" s="13">
         <v>0</v>
       </c>
-      <c r="F872" s="12">
+      <c r="F872" s="86">
         <v>0</v>
       </c>
       <c r="G872" s="12">
@@ -55557,7 +55868,7 @@
       <c r="E875" s="13">
         <v>571289.73</v>
       </c>
-      <c r="F875" s="12">
+      <c r="F875" s="86">
         <v>221080.15</v>
       </c>
       <c r="G875" s="12">
@@ -55607,7 +55918,7 @@
       <c r="E876" s="13">
         <v>0</v>
       </c>
-      <c r="F876" s="12">
+      <c r="F876" s="86">
         <v>0</v>
       </c>
       <c r="G876" s="12">
@@ -55657,7 +55968,7 @@
       <c r="E877" s="13">
         <v>57615.6</v>
       </c>
-      <c r="F877" s="12">
+      <c r="F877" s="86">
         <v>22237.599999999999</v>
       </c>
       <c r="G877" s="12">
@@ -55707,7 +56018,7 @@
       <c r="E878" s="13">
         <v>57615.6</v>
       </c>
-      <c r="F878" s="12">
+      <c r="F878" s="86">
         <v>22237.599999999999</v>
       </c>
       <c r="G878" s="12">
@@ -55757,7 +56068,7 @@
       <c r="E879" s="13">
         <v>11543.79</v>
       </c>
-      <c r="F879" s="12">
+      <c r="F879" s="86">
         <v>1296.29</v>
       </c>
       <c r="G879" s="12">
@@ -55807,7 +56118,7 @@
       <c r="E880" s="13">
         <v>5354.58</v>
       </c>
-      <c r="F880" s="12">
+      <c r="F880" s="86">
         <v>1010.8</v>
       </c>
       <c r="G880" s="12">
@@ -55857,7 +56168,7 @@
       <c r="E881" s="13">
         <v>361</v>
       </c>
-      <c r="F881" s="12">
+      <c r="F881" s="86">
         <v>0</v>
       </c>
       <c r="G881" s="12">
@@ -55907,7 +56218,7 @@
       <c r="E882" s="13">
         <v>56958.31</v>
       </c>
-      <c r="F882" s="12">
+      <c r="F882" s="86">
         <v>12454.52</v>
       </c>
       <c r="G882" s="12">
@@ -55957,7 +56268,7 @@
       <c r="E883" s="13">
         <v>54132.5</v>
       </c>
-      <c r="F883" s="12">
+      <c r="F883" s="86">
         <v>20889</v>
       </c>
       <c r="G883" s="12">
@@ -56007,7 +56318,7 @@
       <c r="E884" s="13">
         <v>0</v>
       </c>
-      <c r="F884" s="12">
+      <c r="F884" s="86">
         <v>0</v>
       </c>
       <c r="G884" s="12">
@@ -56057,7 +56368,7 @@
       <c r="E885" s="13">
         <v>28605.79</v>
       </c>
-      <c r="F885" s="12">
+      <c r="F885" s="86">
         <v>11118.86</v>
       </c>
       <c r="G885" s="12">
@@ -56107,7 +56418,7 @@
       <c r="E886" s="13">
         <v>0</v>
       </c>
-      <c r="F886" s="12">
+      <c r="F886" s="86">
         <v>0</v>
       </c>
       <c r="G886" s="12">
@@ -56157,7 +56468,7 @@
       <c r="E887" s="13">
         <v>6948.56</v>
       </c>
-      <c r="F887" s="12">
+      <c r="F887" s="86">
         <v>1737.14</v>
       </c>
       <c r="G887" s="12">
@@ -56207,7 +56518,7 @@
       <c r="E888" s="13">
         <v>503413.15</v>
       </c>
-      <c r="F888" s="12">
+      <c r="F888" s="86">
         <v>108614.5</v>
       </c>
       <c r="G888" s="12">
@@ -56257,7 +56568,7 @@
       <c r="E889" s="13">
         <v>0</v>
       </c>
-      <c r="F889" s="12">
+      <c r="F889" s="86">
         <v>230308.12</v>
       </c>
       <c r="G889" s="12">
@@ -56307,7 +56618,7 @@
       <c r="E890" s="13">
         <v>57224</v>
       </c>
-      <c r="F890" s="12">
+      <c r="F890" s="86">
         <v>0</v>
       </c>
       <c r="G890" s="12">
@@ -56357,7 +56668,7 @@
       <c r="E891" s="13">
         <v>71591.97</v>
       </c>
-      <c r="F891" s="12">
+      <c r="F891" s="86">
         <v>23542.45</v>
       </c>
       <c r="G891" s="12">
@@ -56407,7 +56718,7 @@
       <c r="E892" s="13">
         <v>38785.49</v>
       </c>
-      <c r="F892" s="12">
+      <c r="F892" s="86">
         <v>0</v>
       </c>
       <c r="G892" s="12">
@@ -56457,7 +56768,7 @@
       <c r="E893" s="13">
         <v>63477.77</v>
       </c>
-      <c r="F893" s="12">
+      <c r="F893" s="86">
         <v>0</v>
       </c>
       <c r="G893" s="12">
@@ -56507,7 +56818,7 @@
       <c r="E894" s="13">
         <v>23635.42</v>
       </c>
-      <c r="F894" s="12">
+      <c r="F894" s="86">
         <v>8996.06</v>
       </c>
       <c r="G894" s="12">
@@ -56557,7 +56868,7 @@
       <c r="E895" s="13">
         <v>0</v>
       </c>
-      <c r="F895" s="12">
+      <c r="F895" s="86">
         <v>2950</v>
       </c>
       <c r="G895" s="12">
@@ -56607,7 +56918,7 @@
       <c r="E896" s="13">
         <v>234706.31</v>
       </c>
-      <c r="F896" s="12">
+      <c r="F896" s="86">
         <v>183254.7</v>
       </c>
       <c r="G896" s="12">
@@ -56657,7 +56968,7 @@
       <c r="E897" s="13">
         <v>116365.3</v>
       </c>
-      <c r="F897" s="12">
+      <c r="F897" s="86">
         <v>729.42</v>
       </c>
       <c r="G897" s="12">
@@ -56707,7 +57018,7 @@
       <c r="E898" s="13">
         <v>38889.440000000002</v>
       </c>
-      <c r="F898" s="12">
+      <c r="F898" s="86">
         <v>132229.32999999999</v>
       </c>
       <c r="G898" s="12">
@@ -56757,7 +57068,7 @@
       <c r="E899" s="13">
         <v>162.93</v>
       </c>
-      <c r="F899" s="12">
+      <c r="F899" s="86">
         <v>333.62</v>
       </c>
       <c r="G899" s="12">
@@ -56857,7 +57168,7 @@
       <c r="E901" s="13">
         <v>48.05</v>
       </c>
-      <c r="F901" s="12">
+      <c r="F901" s="86">
         <v>103806.71</v>
       </c>
       <c r="G901" s="12">
@@ -57007,7 +57318,7 @@
       <c r="E904" s="13">
         <v>606504.79</v>
       </c>
-      <c r="F904" s="12">
+      <c r="F904" s="86">
         <v>453376.55</v>
       </c>
       <c r="G904" s="12">
@@ -57057,7 +57368,7 @@
       <c r="E905" s="13">
         <v>0</v>
       </c>
-      <c r="F905" s="12">
+      <c r="F905" s="86">
         <v>10000</v>
       </c>
       <c r="G905" s="12">
@@ -57107,7 +57418,7 @@
       <c r="E906" s="13">
         <v>231433.60000000001</v>
       </c>
-      <c r="F906" s="12">
+      <c r="F906" s="86">
         <v>66547.570000000007</v>
       </c>
       <c r="G906" s="12">
@@ -57457,7 +57768,7 @@
       <c r="E913" s="13">
         <v>453042.77</v>
       </c>
-      <c r="F913" s="12">
+      <c r="F913" s="86">
         <v>193186.41</v>
       </c>
       <c r="G913" s="12">
@@ -57507,7 +57818,7 @@
       <c r="E914" s="13">
         <v>0</v>
       </c>
-      <c r="F914" s="12">
+      <c r="F914" s="86">
         <v>1129.3599999999999</v>
       </c>
       <c r="G914" s="12">
@@ -57557,7 +57868,7 @@
       <c r="E915" s="13">
         <v>0</v>
       </c>
-      <c r="F915" s="12">
+      <c r="F915" s="86">
         <v>0</v>
       </c>
       <c r="G915" s="12">
@@ -57607,7 +57918,7 @@
       <c r="E916" s="13">
         <v>37804.730000000003</v>
       </c>
-      <c r="F916" s="12">
+      <c r="F916" s="86">
         <v>16046.95</v>
       </c>
       <c r="G916" s="12">
@@ -57657,7 +57968,7 @@
       <c r="E917" s="13">
         <v>37804.730000000003</v>
       </c>
-      <c r="F917" s="12">
+      <c r="F917" s="86">
         <v>16046.95</v>
       </c>
       <c r="G917" s="12">
@@ -57707,7 +58018,7 @@
       <c r="E918" s="13">
         <v>14710.97</v>
       </c>
-      <c r="F918" s="12">
+      <c r="F918" s="86">
         <v>22150.81</v>
       </c>
       <c r="G918" s="12">
@@ -57757,7 +58068,7 @@
       <c r="E919" s="13">
         <v>1255.05</v>
       </c>
-      <c r="F919" s="12">
+      <c r="F919" s="86">
         <v>2581.56</v>
       </c>
       <c r="G919" s="12">
@@ -57807,7 +58118,7 @@
       <c r="E920" s="13">
         <v>0</v>
       </c>
-      <c r="F920" s="12">
+      <c r="F920" s="86">
         <v>0</v>
       </c>
       <c r="G920" s="12">
@@ -57857,7 +58168,7 @@
       <c r="E921" s="13">
         <v>0</v>
       </c>
-      <c r="F921" s="12">
+      <c r="F921" s="86">
         <v>666.11</v>
       </c>
       <c r="G921" s="12">
@@ -57907,7 +58218,7 @@
       <c r="E922" s="13">
         <v>0</v>
       </c>
-      <c r="F922" s="12">
+      <c r="F922" s="86">
         <v>1500</v>
       </c>
       <c r="G922" s="12">
@@ -57957,7 +58268,7 @@
       <c r="E923" s="13">
         <v>42046.19</v>
       </c>
-      <c r="F923" s="12">
+      <c r="F923" s="86">
         <v>15122.98</v>
       </c>
       <c r="G923" s="12">
@@ -58007,7 +58318,7 @@
       <c r="E924" s="13">
         <v>0</v>
       </c>
-      <c r="F924" s="12">
+      <c r="F924" s="86">
         <v>0</v>
       </c>
       <c r="G924" s="12">
@@ -58057,7 +58368,7 @@
       <c r="E925" s="13">
         <v>45657.43</v>
       </c>
-      <c r="F925" s="12">
+      <c r="F925" s="86">
         <v>19276.14</v>
       </c>
       <c r="G925" s="12">
@@ -58107,7 +58418,7 @@
       <c r="E926" s="13">
         <v>0</v>
       </c>
-      <c r="F926" s="12">
+      <c r="F926" s="86">
         <v>0</v>
       </c>
       <c r="G926" s="12">
@@ -58157,7 +58468,7 @@
       <c r="E927" s="13">
         <v>23136.560000000001</v>
       </c>
-      <c r="F927" s="12">
+      <c r="F927" s="86">
         <v>9509.92</v>
       </c>
       <c r="G927" s="12">
@@ -58207,7 +58518,7 @@
       <c r="E928" s="13">
         <v>0</v>
       </c>
-      <c r="F928" s="12">
+      <c r="F928" s="86">
         <v>0</v>
       </c>
       <c r="G928" s="12">
@@ -58257,7 +58568,7 @@
       <c r="E929" s="13">
         <v>30030.35</v>
       </c>
-      <c r="F929" s="12">
+      <c r="F929" s="86">
         <v>6171.43</v>
       </c>
       <c r="G929" s="12">
@@ -58307,7 +58618,7 @@
       <c r="E930" s="13">
         <v>18922.21</v>
       </c>
-      <c r="F930" s="12">
+      <c r="F930" s="86">
         <v>11362.21</v>
       </c>
       <c r="G930" s="12">
@@ -58357,7 +58668,7 @@
       <c r="E931" s="13">
         <v>0</v>
       </c>
-      <c r="F931" s="12">
+      <c r="F931" s="86">
         <v>0</v>
       </c>
       <c r="G931" s="12">
@@ -58407,7 +58718,7 @@
       <c r="E932" s="13">
         <v>58123.55</v>
       </c>
-      <c r="F932" s="12">
+      <c r="F932" s="86">
         <v>20315.009999999998</v>
       </c>
       <c r="G932" s="12">
@@ -58457,7 +58768,7 @@
       <c r="E933" s="13">
         <v>31458.5</v>
       </c>
-      <c r="F933" s="12">
+      <c r="F933" s="86">
         <v>0</v>
       </c>
       <c r="G933" s="12">
@@ -58507,7 +58818,7 @@
       <c r="E934" s="13">
         <v>52262.79</v>
       </c>
-      <c r="F934" s="12">
+      <c r="F934" s="86">
         <v>0</v>
       </c>
       <c r="G934" s="12">
@@ -58557,7 +58868,7 @@
       <c r="E935" s="13">
         <v>18440.009999999998</v>
       </c>
-      <c r="F935" s="12">
+      <c r="F935" s="86">
         <v>8560.17</v>
       </c>
       <c r="G935" s="12">
@@ -58607,7 +58918,7 @@
       <c r="E936" s="13">
         <v>33532.68</v>
       </c>
-      <c r="F936" s="12">
+      <c r="F936" s="86">
         <v>0</v>
       </c>
       <c r="G936" s="12">
@@ -58657,7 +58968,7 @@
       <c r="E937" s="13">
         <v>0</v>
       </c>
-      <c r="F937" s="12">
+      <c r="F937" s="86">
         <v>0</v>
       </c>
       <c r="G937" s="12">
@@ -58707,7 +59018,7 @@
       <c r="E938" s="13">
         <v>44338.5</v>
       </c>
-      <c r="F938" s="12">
+      <c r="F938" s="86">
         <v>1617</v>
       </c>
       <c r="G938" s="12">
@@ -58757,7 +59068,7 @@
       <c r="E939" s="13">
         <v>32718.959999999999</v>
       </c>
-      <c r="F939" s="12">
+      <c r="F939" s="86">
         <v>0</v>
       </c>
       <c r="G939" s="12">
@@ -58807,7 +59118,7 @@
       <c r="E940" s="13">
         <v>1387.66</v>
       </c>
-      <c r="F940" s="12">
+      <c r="F940" s="86">
         <v>6079.32</v>
       </c>
       <c r="G940" s="12">
@@ -58857,7 +59168,7 @@
       <c r="E941" s="13">
         <v>0</v>
       </c>
-      <c r="F941" s="12">
+      <c r="F941" s="86">
         <v>0</v>
       </c>
       <c r="G941" s="12">
@@ -58907,10 +59218,10 @@
       <c r="E942" s="13">
         <v>0</v>
       </c>
-      <c r="F942" s="12">
-        <v>0</v>
-      </c>
-      <c r="G942" s="12">
+      <c r="F942" s="86">
+        <v>0</v>
+      </c>
+      <c r="G942" s="90">
         <v>0</v>
       </c>
       <c r="H942" s="13">
@@ -58957,7 +59268,7 @@
       <c r="E943" s="13">
         <v>29746.91</v>
       </c>
-      <c r="F943" s="12">
+      <c r="F943" s="86">
         <v>15061.79</v>
       </c>
       <c r="G943" s="12">
@@ -59107,7 +59418,7 @@
       <c r="E946" s="13">
         <v>269520.95</v>
       </c>
-      <c r="F946" s="12">
+      <c r="F946" s="86">
         <v>111933.49</v>
       </c>
       <c r="G946" s="12">
@@ -59157,7 +59468,7 @@
       <c r="E947" s="13">
         <v>1181.25</v>
       </c>
-      <c r="F947" s="12">
+      <c r="F947" s="86">
         <v>0</v>
       </c>
       <c r="G947" s="12">
@@ -59207,7 +59518,7 @@
       <c r="E948" s="13">
         <v>28835.66</v>
       </c>
-      <c r="F948" s="12">
+      <c r="F948" s="86">
         <v>11777.2</v>
       </c>
       <c r="G948" s="12">
@@ -59257,7 +59568,7 @@
       <c r="E949" s="13">
         <v>28835.66</v>
       </c>
-      <c r="F949" s="12">
+      <c r="F949" s="86">
         <v>11777.2</v>
       </c>
       <c r="G949" s="12">
@@ -59307,7 +59618,7 @@
       <c r="E950" s="13">
         <v>18835.2</v>
       </c>
-      <c r="F950" s="12">
+      <c r="F950" s="86">
         <v>5838.37</v>
       </c>
       <c r="G950" s="12">
@@ -59357,7 +59668,7 @@
       <c r="E951" s="13">
         <v>4003.31</v>
       </c>
-      <c r="F951" s="12">
+      <c r="F951" s="86">
         <v>2564.2199999999998</v>
       </c>
       <c r="G951" s="12">
@@ -59407,7 +59718,7 @@
       <c r="E952" s="13">
         <v>0</v>
       </c>
-      <c r="F952" s="12">
+      <c r="F952" s="86">
         <v>888.17</v>
       </c>
       <c r="G952" s="12">
@@ -59457,7 +59768,7 @@
       <c r="E953" s="13">
         <v>0</v>
       </c>
-      <c r="F953" s="12">
+      <c r="F953" s="86">
         <v>0</v>
       </c>
       <c r="G953" s="12">
@@ -59507,7 +59818,7 @@
       <c r="E954" s="13">
         <v>23267.64</v>
       </c>
-      <c r="F954" s="12">
+      <c r="F954" s="86">
         <v>6726.22</v>
       </c>
       <c r="G954" s="12">
@@ -59557,7 +59868,7 @@
       <c r="E955" s="13">
         <v>0</v>
       </c>
-      <c r="F955" s="12">
+      <c r="F955" s="86">
         <v>0</v>
       </c>
       <c r="G955" s="12">
@@ -59607,7 +59918,7 @@
       <c r="E956" s="13">
         <v>28835.66</v>
       </c>
-      <c r="F956" s="12">
+      <c r="F956" s="86">
         <v>11777.2</v>
       </c>
       <c r="G956" s="12">
@@ -59657,7 +59968,7 @@
       <c r="E957" s="13">
         <v>14198.58</v>
       </c>
-      <c r="F957" s="12">
+      <c r="F957" s="86">
         <v>5888.57</v>
       </c>
       <c r="G957" s="12">
@@ -59707,7 +60018,7 @@
       <c r="E958" s="13">
         <v>0</v>
       </c>
-      <c r="F958" s="12">
+      <c r="F958" s="86">
         <v>0</v>
       </c>
       <c r="G958" s="12">
@@ -59757,7 +60068,7 @@
       <c r="E959" s="13">
         <v>12160</v>
       </c>
-      <c r="F959" s="12">
+      <c r="F959" s="86">
         <v>3040</v>
       </c>
       <c r="G959" s="12">
@@ -59807,7 +60118,7 @@
       <c r="E960" s="13">
         <v>14217.31</v>
       </c>
-      <c r="F960" s="12">
+      <c r="F960" s="86">
         <v>11870.83</v>
       </c>
       <c r="G960" s="12">
@@ -59857,7 +60168,7 @@
       <c r="E961" s="13">
         <v>37062.379999999997</v>
       </c>
-      <c r="F961" s="12">
+      <c r="F961" s="86">
         <v>12583.32</v>
       </c>
       <c r="G961" s="12">
@@ -59907,7 +60218,7 @@
       <c r="E962" s="13">
         <v>18974.14</v>
       </c>
-      <c r="F962" s="12">
+      <c r="F962" s="86">
         <v>0</v>
       </c>
       <c r="G962" s="12">
@@ -59957,7 +60268,7 @@
       <c r="E963" s="13">
         <v>30126.57</v>
       </c>
-      <c r="F963" s="12">
+      <c r="F963" s="86">
         <v>0</v>
       </c>
       <c r="G963" s="12">
@@ -60007,7 +60318,7 @@
       <c r="E964" s="13">
         <v>11867.63</v>
       </c>
-      <c r="F964" s="12">
+      <c r="F964" s="86">
         <v>4873.3</v>
       </c>
       <c r="G964" s="12">
@@ -60257,7 +60568,7 @@
       <c r="E969" s="13">
         <v>310100.77</v>
       </c>
-      <c r="F969" s="12">
+      <c r="F969" s="86">
         <v>124813.97</v>
       </c>
       <c r="G969" s="12">
@@ -60307,7 +60618,7 @@
       <c r="E970" s="13">
         <v>31416.65</v>
       </c>
-      <c r="F970" s="12">
+      <c r="F970" s="86">
         <v>12566.66</v>
       </c>
       <c r="G970" s="12">
@@ -60357,7 +60668,7 @@
       <c r="E971" s="13">
         <v>31416.65</v>
       </c>
-      <c r="F971" s="12">
+      <c r="F971" s="86">
         <v>12566.66</v>
       </c>
       <c r="G971" s="12">
@@ -60407,7 +60718,7 @@
       <c r="E972" s="13">
         <v>4066.23</v>
       </c>
-      <c r="F972" s="12">
+      <c r="F972" s="86">
         <v>852.83</v>
       </c>
       <c r="G972" s="12">
@@ -60457,7 +60768,7 @@
       <c r="E973" s="13">
         <v>0</v>
       </c>
-      <c r="F973" s="12">
+      <c r="F973" s="86">
         <v>0</v>
       </c>
       <c r="G973" s="12">
@@ -60507,7 +60818,7 @@
       <c r="E974" s="13">
         <v>26226.94</v>
       </c>
-      <c r="F974" s="12">
+      <c r="F974" s="86">
         <v>7012.65</v>
       </c>
       <c r="G974" s="12">
@@ -60557,7 +60868,7 @@
       <c r="E975" s="13">
         <v>31416.65</v>
       </c>
-      <c r="F975" s="12">
+      <c r="F975" s="86">
         <v>12566.66</v>
       </c>
       <c r="G975" s="12">
@@ -60607,7 +60918,7 @@
       <c r="E976" s="13">
         <v>15708.35</v>
       </c>
-      <c r="F976" s="12">
+      <c r="F976" s="86">
         <v>6283.34</v>
       </c>
       <c r="G976" s="12">
@@ -60657,7 +60968,7 @@
       <c r="E977" s="13">
         <v>0</v>
       </c>
-      <c r="F977" s="12">
+      <c r="F977" s="86">
         <v>0</v>
       </c>
       <c r="G977" s="12">
@@ -60707,7 +61018,7 @@
       <c r="E978" s="13">
         <v>8685.7199999999993</v>
       </c>
-      <c r="F978" s="12">
+      <c r="F978" s="86">
         <v>2171.4299999999998</v>
       </c>
       <c r="G978" s="12">
@@ -60757,7 +61068,7 @@
       <c r="E979" s="13">
         <v>38666.67</v>
       </c>
-      <c r="F979" s="12">
+      <c r="F979" s="86">
         <v>17166.669999999998</v>
       </c>
       <c r="G979" s="12">
@@ -60807,7 +61118,7 @@
       <c r="E980" s="13">
         <v>0</v>
       </c>
-      <c r="F980" s="12">
+      <c r="F980" s="86">
         <v>0</v>
       </c>
       <c r="G980" s="12">
@@ -60857,7 +61168,7 @@
       <c r="E981" s="13">
         <v>37777.1</v>
       </c>
-      <c r="F981" s="12">
+      <c r="F981" s="86">
         <v>12889.71</v>
       </c>
       <c r="G981" s="12">
@@ -60907,7 +61218,7 @@
       <c r="E982" s="13">
         <v>21148.95</v>
       </c>
-      <c r="F982" s="12">
+      <c r="F982" s="86">
         <v>0</v>
       </c>
       <c r="G982" s="12">
@@ -60957,7 +61268,7 @@
       <c r="E983" s="13">
         <v>35117.129999999997</v>
       </c>
-      <c r="F983" s="12">
+      <c r="F983" s="86">
         <v>0</v>
       </c>
       <c r="G983" s="12">
@@ -61007,7 +61318,7 @@
       <c r="E984" s="13">
         <v>12723.7</v>
       </c>
-      <c r="F984" s="12">
+      <c r="F984" s="86">
         <v>5089.4799999999996</v>
       </c>
       <c r="G984" s="12">
@@ -63389,7 +63700,1286 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588AA976-122E-4708-8605-205E20F5F966}">
+  <dimension ref="A1:A252"/>
+  <sheetViews>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A252"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="85">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="85">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85">
+        <v>103.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85">
+        <v>368.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85">
+        <v>318.10000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85">
+        <v>80.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="85">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="85">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="85">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85">
+        <v>60.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85">
+        <v>271.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="85">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="85">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="85">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85">
+        <v>37.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="85">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85">
+        <v>111.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="85">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="85">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="85">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="85">
+        <v>78.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="85">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="85">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="85">
+        <v>243.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="85">
+        <v>532.79999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="85">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="85">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="85">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="85">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="85">
+        <v>64.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="85">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="85">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="85">
+        <v>45.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="85">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85">
+        <v>201.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="85">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="85">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="85">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="85">
+        <v>947.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="85">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="85">
+        <v>215.52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="85">
+        <v>129.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="85">
+        <v>33.619999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="85">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="85">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="85">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="85">
+        <v>66.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="85">
+        <v>158.62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="85">
+        <v>141.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="85">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="85">
+        <v>203.45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="85">
+        <v>167.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="85">
+        <v>598.66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="85">
+        <v>3409.03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="85">
+        <v>238.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="85">
+        <v>1847.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="85">
+        <v>2190.4299999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="85">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="85">
+        <v>107.84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="85">
+        <v>2425.66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="85">
+        <v>214.66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="85">
+        <v>8841.3799999999992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="85">
+        <v>915.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="85">
+        <v>895.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="85">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="85">
+        <v>1460.79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="85">
+        <v>883.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="85">
+        <v>886.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="85">
+        <v>1463.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="85">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="85">
+        <v>892.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="85">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="85">
+        <v>706892</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="85">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="85">
+        <v>3044.88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="85">
+        <v>40844.129999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="85">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="85">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="85">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="85">
+        <v>13720.59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="85">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="85">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="85">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="85">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="85">
+        <v>30951.51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="85">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="85">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="85">
+        <v>171.79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="85">
+        <v>68.08</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="85">
+        <v>127.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="85">
+        <v>1022.31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="85">
+        <v>367.69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="85">
+        <v>284.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="85">
+        <v>284.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="85">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="85">
+        <v>394.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="85">
+        <v>129.09</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="85">
+        <v>779.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="85">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="85">
+        <v>27196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="85">
+        <v>175070.12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="85">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="85">
+        <v>214.66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="85">
+        <v>333.62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="85">
+        <v>1334.48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="85">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="85">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="85">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="85">
+        <v>173.55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="85">
+        <v>257.93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="85">
+        <v>324.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="85">
+        <v>193.97</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="85">
+        <v>134.47999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="85">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="85">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="85">
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="85">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="85">
+        <v>33.79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="85">
+        <v>328.28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="85">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="85">
+        <v>154.31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="85">
+        <v>211.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="85">
+        <v>85.34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="85">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="85">
+        <v>393.19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="85">
+        <v>1681.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="85">
+        <v>1214.6600000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="85">
+        <v>21528</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="85">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="85">
+        <v>10416.379999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="85">
+        <v>5873.85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="85">
+        <v>24137.93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="85">
+        <v>24737.69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="85">
+        <v>107908.12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="85">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="85">
+        <v>-26249.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="85">
+        <v>-77536.570000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="85">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="85">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="85">
+        <v>33362.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="85">
+        <v>1124.3800000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="85">
+        <v>5210.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="85">
+        <v>22375.83</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="85">
+        <v>23888.89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="85">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="85">
+        <v>90.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="85">
+        <v>487.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="85">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="85">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="85">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="85">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="85">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="85">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="85">
+        <v>107908.12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="85">
+        <v>175070.12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="85">
+        <v>30951.49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="85">
+        <v>40844.15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="85">
+        <v>22375.83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="85">
+        <v>5873.85</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="85">
+        <v>24137.93</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="85">
+        <v>24737.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="85">
+        <v>1124.3800000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="85">
+        <v>5210.38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="85">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="85">
+        <v>10091.82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="85">
+        <v>863.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="85">
+        <v>1155.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="85">
+        <v>164.48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="85">
+        <v>2426.0100000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="85">
+        <v>2467.46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="85">
+        <v>13649.58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="85">
+        <v>1650.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="85">
+        <v>1650.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="85">
+        <v>825.43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="85">
+        <v>1650.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="85">
+        <v>1813.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="85">
+        <v>82.24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="85">
+        <v>1809.22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="85">
+        <v>2358.41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="85">
+        <v>12337.32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="85">
+        <v>328.95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="85">
+        <v>164.48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="85">
+        <v>2672.72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="85">
+        <v>2467.46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="85">
+        <v>14475.83</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="85">
+        <v>863.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="85">
+        <v>863.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="85">
+        <v>1195.3499999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="85">
+        <v>1973.7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="85">
+        <v>164.48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="85">
+        <v>2179.29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="85">
+        <v>2467.46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="85">
+        <v>13609.43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="85">
+        <v>863.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="85">
+        <v>1727.24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="85">
+        <v>1772.95</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="85">
+        <v>164.46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="85">
+        <v>2179.29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="85">
+        <v>2467.46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="85">
+        <v>13031.83</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="85">
+        <v>3885.99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="85">
+        <v>4320.63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="85">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="85">
+        <v>23888.89</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="85">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="85">
+        <v>27500.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5132CE-D4A6-452B-8B53-FF1AE14E2BA9}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
